--- a/Excel Files/CHIK_Dom_Rep.xlsx
+++ b/Excel Files/CHIK_Dom_Rep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\ms\EpiGro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\MATLAB\Math_EpiGro_paper\MATLAB_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -527,106 +527,106 @@
                   <c:v>38656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54417</c:v>
+                  <c:v>57090</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74299</c:v>
+                  <c:v>77256</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>99954</c:v>
+                  <c:v>103024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>131976</c:v>
+                  <c:v>134878</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>170267</c:v>
+                  <c:v>172681</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>213859</c:v>
+                  <c:v>215435</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>260628</c:v>
+                  <c:v>261230</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>308003</c:v>
+                  <c:v>307514</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>353095</c:v>
+                  <c:v>351626</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393501</c:v>
+                  <c:v>391378</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>427978</c:v>
+                  <c:v>425433</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>456047</c:v>
+                  <c:v>453365</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>477965</c:v>
+                  <c:v>475468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>494680</c:v>
+                  <c:v>492468</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>507163</c:v>
+                  <c:v>505259</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>516293</c:v>
+                  <c:v>514725</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>522922</c:v>
+                  <c:v>521645</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>527670</c:v>
+                  <c:v>526658</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>531066</c:v>
+                  <c:v>530267</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>533551</c:v>
+                  <c:v>532852</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>535270</c:v>
+                  <c:v>534697</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>536392</c:v>
+                  <c:v>536012</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>537174</c:v>
+                  <c:v>536946</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>537806</c:v>
+                  <c:v>537610</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>538256</c:v>
+                  <c:v>538081</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>538544</c:v>
+                  <c:v>538415</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>538717</c:v>
+                  <c:v>538652</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>538853</c:v>
+                  <c:v>538820</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>538985</c:v>
+                  <c:v>538938</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>539085</c:v>
+                  <c:v>539023</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>539142</c:v>
+                  <c:v>539082</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>539158</c:v>
+                  <c:v>539124</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>539150</c:v>
+                  <c:v>539154</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>539148</c:v>
+                  <c:v>539176</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>539178</c:v>
@@ -1093,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1072532368"/>
-        <c:axId val="1072531824"/>
+        <c:axId val="532344448"/>
+        <c:axId val="532348800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1072532368"/>
+        <c:axId val="532344448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1072531824"/>
+        <c:crossAx val="532348800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1072531824"/>
+        <c:axId val="532348800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1072532368"/>
+        <c:crossAx val="532344448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2983,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -3016,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>539226.87037583115</v>
+        <v>539226.87037583126</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>47635.476721952662</v>
+        <v>46539.703964230568</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -3163,7 +3163,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>539223</v>
+        <v>539227</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3304,7 +3304,7 @@
         <v>52993</v>
       </c>
       <c r="F24">
-        <v>54417</v>
+        <v>57090</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>77338</v>
       </c>
       <c r="F25">
-        <v>74299</v>
+        <v>77256</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
         <v>77338</v>
       </c>
       <c r="F26">
-        <v>99954</v>
+        <v>103024</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>135853</v>
       </c>
       <c r="F27">
-        <v>131976</v>
+        <v>134878</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>135853</v>
       </c>
       <c r="F28">
-        <v>170267</v>
+        <v>172681</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>251951</v>
       </c>
       <c r="F29">
-        <v>213859</v>
+        <v>215435</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>281921</v>
       </c>
       <c r="F30">
-        <v>260628</v>
+        <v>261230</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>307933</v>
       </c>
       <c r="F31">
-        <v>308003</v>
+        <v>307514</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>370212</v>
       </c>
       <c r="F32">
-        <v>353095</v>
+        <v>351626</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -3403,7 +3403,7 @@
         <v>370212</v>
       </c>
       <c r="F33">
-        <v>393501</v>
+        <v>391378</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>370212</v>
       </c>
       <c r="F34">
-        <v>427978</v>
+        <v>425433</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>370212</v>
       </c>
       <c r="F35">
-        <v>456047</v>
+        <v>453365</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>429492</v>
       </c>
       <c r="F36">
-        <v>477965</v>
+        <v>475468</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>467150</v>
       </c>
       <c r="F37">
-        <v>494680</v>
+        <v>492468</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>467150</v>
       </c>
       <c r="F38">
-        <v>507163</v>
+        <v>505259</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>467150</v>
       </c>
       <c r="F39">
-        <v>516293</v>
+        <v>514725</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>486390</v>
       </c>
       <c r="F40">
-        <v>522922</v>
+        <v>521645</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>486390</v>
       </c>
       <c r="F41">
-        <v>527670</v>
+        <v>526658</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>486390</v>
       </c>
       <c r="F42">
-        <v>531066</v>
+        <v>530267</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>499000</v>
       </c>
       <c r="F43">
-        <v>533551</v>
+        <v>532852</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>499000</v>
       </c>
       <c r="F44">
-        <v>535270</v>
+        <v>534697</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>499000</v>
       </c>
       <c r="F45">
-        <v>536392</v>
+        <v>536012</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>499000</v>
       </c>
       <c r="F46">
-        <v>537174</v>
+        <v>536946</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>524381</v>
       </c>
       <c r="F47">
-        <v>537806</v>
+        <v>537610</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
@@ -3568,7 +3568,7 @@
         <v>524381</v>
       </c>
       <c r="F48">
-        <v>538256</v>
+        <v>538081</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>524381</v>
       </c>
       <c r="F49">
-        <v>538544</v>
+        <v>538415</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
         <v>524381</v>
       </c>
       <c r="F50">
-        <v>538717</v>
+        <v>538652</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
         <v>524381</v>
       </c>
       <c r="F51">
-        <v>538853</v>
+        <v>538820</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>524381</v>
       </c>
       <c r="F52">
-        <v>538985</v>
+        <v>538938</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>537712</v>
       </c>
       <c r="F53">
-        <v>539085</v>
+        <v>539023</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>539004</v>
       </c>
       <c r="F54">
-        <v>539142</v>
+        <v>539082</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
         <v>539183</v>
       </c>
       <c r="F55">
-        <v>539158</v>
+        <v>539124</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>539004</v>
       </c>
       <c r="F56">
-        <v>539150</v>
+        <v>539154</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>539004</v>
       </c>
       <c r="F57">
-        <v>539148</v>
+        <v>539176</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
